--- a/Ссылки_детмир.xlsx
+++ b/Ссылки_детмир.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\proga\world-child\WorldChild\WorldChild\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijbrezgin/Desktop/child/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6F7C760-CCA1-4ADE-B2AF-47FA5500C2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9CC8A-E5D8-4545-89AE-F93D94248545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="152">
   <si>
     <t>Размещение на сайте</t>
   </si>
@@ -467,6 +477,15 @@
   </si>
   <si>
     <t>Сухие корма</t>
+  </si>
+  <si>
+    <t>Каталог/Товары для детей/Матрасы и постельные принадлежности</t>
+  </si>
+  <si>
+    <t>https://detmir.ru/catalog/index/name/mattress_bedding</t>
+  </si>
+  <si>
+    <t>Матрасы и постельные принадлежности</t>
   </si>
 </sst>
 </file>
@@ -586,9 +605,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -626,9 +645,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -661,9 +680,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -696,9 +732,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -874,23 +927,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="58" customWidth="1"/>
-    <col min="4" max="4" width="78.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="78.5" customWidth="1"/>
+    <col min="5" max="6" width="12.5" customWidth="1"/>
     <col min="7" max="7" width="29" style="5" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="39.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B1" s="10" t="s">
         <v>129</v>
       </c>
@@ -916,7 +968,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="10">
         <v>1880</v>
       </c>
@@ -938,7 +990,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="10">
         <v>439</v>
       </c>
@@ -960,7 +1012,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="14">
         <v>1392</v>
       </c>
@@ -984,7 +1036,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="14"/>
       <c r="C5" s="8" t="s">
         <v>88</v>
@@ -1006,7 +1058,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="14"/>
       <c r="C6" s="8" t="s">
         <v>88</v>
@@ -1028,7 +1080,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
         <v>88</v>
@@ -1050,7 +1102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="14"/>
       <c r="C8" s="8" t="s">
         <v>88</v>
@@ -1072,7 +1124,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="14"/>
       <c r="C9" s="8" t="s">
         <v>88</v>
@@ -1094,7 +1146,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B10" s="14"/>
       <c r="C10" s="8" t="s">
         <v>88</v>
@@ -1116,7 +1168,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="14">
         <v>1959</v>
       </c>
@@ -1140,7 +1192,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="14"/>
       <c r="C12" s="8" t="s">
         <v>89</v>
@@ -1162,7 +1214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
         <v>89</v>
@@ -1184,7 +1236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" s="10">
         <v>1942</v>
       </c>
@@ -1206,7 +1258,7 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="10">
         <v>497</v>
       </c>
@@ -1228,7 +1280,7 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="14">
         <v>953</v>
       </c>
@@ -1252,7 +1304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
         <v>92</v>
@@ -1274,7 +1326,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" s="10">
         <v>2652</v>
       </c>
@@ -1296,7 +1348,7 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" s="10">
         <v>1619</v>
       </c>
@@ -1318,7 +1370,7 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" s="10" t="s">
         <v>146</v>
       </c>
@@ -1340,7 +1392,7 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="10">
         <v>632</v>
       </c>
@@ -1362,7 +1414,7 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" s="10">
         <v>1553</v>
       </c>
@@ -1384,7 +1436,7 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" s="10">
         <v>742</v>
       </c>
@@ -1406,7 +1458,7 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B24" s="10">
         <v>34</v>
       </c>
@@ -1428,7 +1480,7 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B25" s="10">
         <v>190</v>
       </c>
@@ -1450,7 +1502,7 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B26" s="10">
         <v>206</v>
       </c>
@@ -1472,7 +1524,7 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B27" s="10">
         <v>241</v>
       </c>
@@ -1494,7 +1546,7 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B28" s="10">
         <v>332</v>
       </c>
@@ -1516,7 +1568,7 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B29" s="10">
         <v>25</v>
       </c>
@@ -1538,7 +1590,7 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C30" s="8" t="s">
         <v>102</v>
       </c>
@@ -1559,7 +1611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C31" s="8" t="s">
         <v>103</v>
       </c>
@@ -1580,7 +1632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C32" s="8" t="s">
         <v>123</v>
       </c>
@@ -1601,7 +1653,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" s="8" t="s">
         <v>104</v>
       </c>
@@ -1622,7 +1674,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" s="8" t="s">
         <v>105</v>
       </c>
@@ -1643,7 +1695,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" s="8" t="s">
         <v>106</v>
       </c>
@@ -1664,7 +1716,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" s="8" t="s">
         <v>107</v>
       </c>
@@ -1685,7 +1737,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" s="8" t="s">
         <v>108</v>
       </c>
@@ -1706,7 +1758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C38" s="8" t="s">
         <v>141</v>
       </c>
@@ -1727,7 +1779,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" s="8" t="s">
         <v>142</v>
       </c>
@@ -1748,7 +1800,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C40" s="8" t="s">
         <v>143</v>
       </c>
@@ -1769,7 +1821,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" s="8" t="s">
         <v>144</v>
       </c>
@@ -1790,7 +1842,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" s="8" t="s">
         <v>110</v>
       </c>
@@ -1811,7 +1863,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C43" s="8" t="s">
         <v>112</v>
       </c>
@@ -1832,7 +1884,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" s="8" t="s">
         <v>114</v>
       </c>
@@ -1853,7 +1905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C45" s="8" t="s">
         <v>116</v>
       </c>
@@ -1874,7 +1926,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" s="8" t="s">
         <v>118</v>
       </c>
@@ -1895,7 +1947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" s="8" t="s">
         <v>119</v>
       </c>
@@ -1916,7 +1968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C48" s="8" t="s">
         <v>122</v>
       </c>
@@ -1937,7 +1989,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>145</v>
       </c>
@@ -1959,8 +2011,22 @@
       </c>
       <c r="I49" s="7"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="9"/>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="C50" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>151</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1998,8 +2064,9 @@
     <hyperlink ref="D47" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="D48" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
     <hyperlink ref="D49" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
+    <hyperlink ref="D50" r:id="rId30" tooltip="https://detmir.ru/catalog/index/name/mattress_bedding" xr:uid="{51AB6688-8CCC-064B-BA9F-90EFE5A82A14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId31"/>
 </worksheet>
 </file>
--- a/Ссылки_детмир.xlsx
+++ b/Ссылки_детмир.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arsenijbrezgin/Desktop/child/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE9CC8A-E5D8-4545-89AE-F93D94248545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726BA5E3-7297-4E4A-87CE-46C82A99A54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
     <t>Каталог/Товары для детей/Матрасы и постельные принадлежности</t>
   </si>
   <si>
-    <t>https://detmir.ru/catalog/index/name/mattress_bedding</t>
-  </si>
-  <si>
     <t>Матрасы и постельные принадлежности</t>
+  </si>
+  <si>
+    <t>https://www.detmir.ru/catalog/index/name/mattress_bedding</t>
   </si>
 </sst>
 </file>
@@ -927,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:H50"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="200" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2016,16 +2016,16 @@
         <v>149</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="E50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="E50" t="s">
-        <v>75</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2064,7 +2064,7 @@
     <hyperlink ref="D47" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
     <hyperlink ref="D48" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
     <hyperlink ref="D49" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="D50" r:id="rId30" tooltip="https://detmir.ru/catalog/index/name/mattress_bedding" xr:uid="{51AB6688-8CCC-064B-BA9F-90EFE5A82A14}"/>
+    <hyperlink ref="D50" r:id="rId30" xr:uid="{51AB6688-8CCC-064B-BA9F-90EFE5A82A14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId31"/>
